--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,6 +2215,28 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PS3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Zerar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,42 +2196,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>teste de jogo ps5</t>
+          <t>GTA Vice City</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Completo</t>
+          <t>em progresso</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PS5</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Incompleto</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>PS3</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
         <is>
           <t>Zerar</t>
         </is>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zile\Downloads\Jogos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889CBA64-2478-4A17-A32F-BAA3C646BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D28355-E011-4B5B-92B8-CAC5C3B572E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Nome do Jogo</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Days Gone</t>
   </si>
   <si>
-    <t>Dragon Ball Z: Kakarot</t>
-  </si>
-  <si>
     <t>Elden Ring</t>
   </si>
   <si>
@@ -148,15 +145,9 @@
     <t>Red Dead Redemption 2</t>
   </si>
   <si>
-    <t>Resident Evil 2 Remake</t>
-  </si>
-  <si>
     <t>Resident Evil 3</t>
   </si>
   <si>
-    <t>Resident Evil 4 Remake</t>
-  </si>
-  <si>
     <t>Resident Evil 4 (2005)</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>Spider-Man</t>
   </si>
   <si>
-    <t>Spider-Man: Miles Morales</t>
-  </si>
-  <si>
     <t>The Last of Us</t>
   </si>
   <si>
@@ -199,12 +187,6 @@
     <t>The Witcher 2</t>
   </si>
   <si>
-    <t>The Witcher 3: Wild Hunt</t>
-  </si>
-  <si>
-    <t>Uncharted 4: A Thief's End</t>
-  </si>
-  <si>
     <t>Undertale</t>
   </si>
   <si>
@@ -232,16 +214,31 @@
     <t>Call of Duty Black Ops II</t>
   </si>
   <si>
-    <t xml:space="preserve">Crash Bandicoot </t>
-  </si>
-  <si>
     <t>Incompleto</t>
   </si>
   <si>
-    <t xml:space="preserve">Mortal Kombat </t>
-  </si>
-  <si>
     <t>Uncharted The Nathan Drake Collection</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z Kakarot</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>Resident Evil 4</t>
+  </si>
+  <si>
+    <t>Resident Evil 2</t>
+  </si>
+  <si>
+    <t>Spider-Man Miles Morales</t>
+  </si>
+  <si>
+    <t>The Witcher 3 Wild Hunt</t>
+  </si>
+  <si>
+    <t>Uncharted 4 A Thief's End</t>
   </si>
 </sst>
 </file>
@@ -606,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="A77:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,16 +633,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -681,27 +678,27 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +706,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -737,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -748,16 +745,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -779,21 +776,21 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -804,24 +801,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -832,10 +829,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -846,150 +843,150 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1000,94 +997,94 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1098,108 +1095,108 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1210,10 +1207,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1224,10 +1221,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1238,164 +1235,164 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1406,10 +1403,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1420,122 +1417,122 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1546,10 +1543,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1560,24 +1557,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1588,35 +1585,35 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -1630,52 +1627,52 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zile\Downloads\Jogos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D28355-E011-4B5B-92B8-CAC5C3B572E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E4DB7-B702-4271-A574-5B5489BB4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="74">
   <si>
     <t>Nome do Jogo</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Balatro</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>Bloodborne</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Mortal Kombat X</t>
   </si>
   <si>
-    <t>Naruto Shippuden: Ultimate Ninja Storm 4</t>
-  </si>
-  <si>
     <t>Outlast</t>
   </si>
   <si>
@@ -239,6 +233,15 @@
   </si>
   <si>
     <t>Uncharted 4 A Thief's End</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden Ultimate Ninja Storm 4</t>
+  </si>
+  <si>
+    <t>PC - Steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC - Xbox </t>
   </si>
 </sst>
 </file>
@@ -603,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="A77:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,16 +636,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,1035 +653,1035 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
         <v>56</v>
       </c>
-      <c r="B73" t="s">
-        <v>58</v>
-      </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zile\Downloads\Jogos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E4DB7-B702-4271-A574-5B5489BB4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F34E42C-4A03-4627-BD96-A6148BAC7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
   <si>
     <t>Nome do Jogo</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Celeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control </t>
   </si>
   <si>
     <t>Dead Space</t>
@@ -248,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +257,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,11 +302,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +626,7 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,9 +640,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -645,231 +651,233 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,27 +885,27 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,27 +913,27 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +941,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,27 +955,27 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +983,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,27 +997,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,27 +1025,27 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,27 +1053,27 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,13 +1081,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,27 +1095,27 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1123,13 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1137,13 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,41 +1151,41 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1193,13 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1207,13 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1221,13 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,97 +1235,97 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,27 +1333,27 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,27 +1361,27 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,13 +1389,13 @@
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,13 +1403,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1409,13 +1417,13 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,55 +1431,55 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,13 +1487,13 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,13 +1501,13 @@
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,13 +1515,13 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,13 +1529,13 @@
         <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,83 +1543,83 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,69 +1627,55 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
         <v>57</v>
       </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zile\Downloads\Jogos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F34E42C-4A03-4627-BD96-A6148BAC7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64694B16-26C8-49AD-A06A-DFB7BEB067D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="72">
   <si>
     <t>Nome do Jogo</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>GTA Vice City</t>
-  </si>
-  <si>
-    <t>em progresso</t>
   </si>
   <si>
     <t>Astro's Bot</t>
@@ -612,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +639,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -662,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -673,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -690,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -698,7 +695,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -718,10 +715,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -759,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -773,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -784,10 +781,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -801,10 +798,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -815,10 +812,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -829,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -843,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -899,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -913,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -927,10 +924,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
@@ -958,10 +955,10 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,10 +980,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1014,7 +1011,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -1081,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1112,7 +1109,7 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -1129,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,7 +1159,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -1193,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1207,10 +1204,10 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -1221,10 +1218,10 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1241,15 +1238,15 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1260,10 +1257,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1277,7 +1274,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1288,10 +1285,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1305,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1319,10 +1316,10 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
@@ -1333,7 +1330,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1350,10 +1347,10 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1358,7 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1378,10 +1375,10 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,10 +1386,10 @@
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -1403,7 +1400,7 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1420,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,7 +1439,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -1529,10 +1526,10 @@
         <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -1543,10 +1540,10 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>55</v>
@@ -1568,13 +1565,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -1582,7 +1579,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -1596,7 +1593,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -1613,10 +1610,10 @@
         <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -1630,7 +1627,7 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
@@ -1641,10 +1638,10 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
@@ -1658,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
@@ -1669,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>

--- a/Data/jogos.xlsx
+++ b/Data/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zile\Downloads\Jogos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64694B16-26C8-49AD-A06A-DFB7BEB067D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDC7CA-59E5-46F4-9102-026C927F225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -697,7 +697,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
